--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\開發文件\高中畢業預警\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBD2B4E-28B8-4C77-B3B1-899EBFD93D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104FE30-28AC-4F29-9C7C-D99FE8E6DD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="依學期成績為主比對課規沒有" sheetId="1" r:id="rId1"/>
+    <sheet name="依課規為主比對學期成績沒有" sheetId="2" r:id="rId2"/>
+    <sheet name="依課規比對課程群組學分總數不符合" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>學號</t>
   </si>
@@ -71,7 +73,25 @@
     <t>使用課規</t>
   </si>
   <si>
-    <t>問題說明</t>
+    <t>課規年級</t>
+  </si>
+  <si>
+    <t>課規學期</t>
+  </si>
+  <si>
+    <t>課規科目名稱</t>
+  </si>
+  <si>
+    <t>課規科目級別</t>
+  </si>
+  <si>
+    <t>分組名稱</t>
+  </si>
+  <si>
+    <t>分組修課學分數</t>
+  </si>
+  <si>
+    <t>學分加總</t>
   </si>
 </sst>
 </file>
@@ -438,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6CAE89-474B-4CEE-AEE4-B853654E0034}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -447,7 +467,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +501,108 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508DE89-499A-4FE6-8E43-69C0C68899A2}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65180E6E-8E53-4620-842D-0DE38B85770E}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104FE30-28AC-4F29-9C7C-D99FE8E6DD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64D96EB-1E86-4652-9EB2-BD274BC76F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>學號</t>
   </si>
@@ -92,6 +92,28 @@
   </si>
   <si>
     <t>學分加總</t>
+  </si>
+  <si>
+    <t>學生系統編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新科目名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新科目級別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>學分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不計學分</t>
+  </si>
+  <si>
+    <t>不需評分</t>
   </si>
 </sst>
 </file>
@@ -458,47 +480,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6CAE89-474B-4CEE-AEE4-B853654E0034}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64D96EB-1E86-4652-9EB2-BD274BC76F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036D830-1BFB-4854-A562-6883A64BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>學號</t>
   </si>
@@ -73,25 +73,10 @@
     <t>使用課規</t>
   </si>
   <si>
-    <t>課規年級</t>
-  </si>
-  <si>
-    <t>課規學期</t>
-  </si>
-  <si>
-    <t>課規科目名稱</t>
-  </si>
-  <si>
-    <t>課規科目級別</t>
-  </si>
-  <si>
     <t>分組名稱</t>
   </si>
   <si>
     <t>分組修課學分數</t>
-  </si>
-  <si>
-    <t>學分加總</t>
   </si>
   <si>
     <t>學生系統編號</t>
@@ -114,6 +99,15 @@
   </si>
   <si>
     <t>不需評分</t>
+  </si>
+  <si>
+    <t>使用課程規劃表</t>
+  </si>
+  <si>
+    <t>領域</t>
+  </si>
+  <si>
+    <t>成績累計學分數</t>
   </si>
 </sst>
 </file>
@@ -484,7 +478,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -494,7 +488,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -527,19 +521,19 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>10</v>
@@ -553,16 +547,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508DE89-499A-4FE6-8E43-69C0C68899A2}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,16 +573,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -599,7 +599,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65180E6E-8E53-4620-842D-0DE38B85770E}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -611,12 +611,14 @@
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,19 +635,22 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>17</v>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5036D830-1BFB-4854-A562-6883A64BE565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606290B6-56D1-4A38-9F36-19ECC285C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
   <sheets>
-    <sheet name="依學期成績為主比對課規沒有" sheetId="1" r:id="rId1"/>
-    <sheet name="依課規為主比對學期成績沒有" sheetId="2" r:id="rId2"/>
+    <sheet name="依學期成績為主比對課規不符合" sheetId="1" r:id="rId1"/>
+    <sheet name="依課規為主比對學期成績不符合" sheetId="2" r:id="rId2"/>
     <sheet name="依課規比對課程群組學分總數不符合" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>

--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606290B6-56D1-4A38-9F36-19ECC285C703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F305-9236-475D-97D6-A35D5B1E59F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="依學期成績為主比對課規不符合" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>學號</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>成績累計學分數</t>
+  </si>
+  <si>
+    <t>分項類別</t>
+  </si>
+  <si>
+    <t>校部訂</t>
+  </si>
+  <si>
+    <t>必選修</t>
   </si>
 </sst>
 </file>
@@ -476,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6CAE89-474B-4CEE-AEE4-B853654E0034}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -547,16 +556,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508DE89-499A-4FE6-8E43-69C0C68899A2}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,6 +598,15 @@
       </c>
       <c r="K1" t="s">
         <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
+++ b/SHGraduationWarning/Template/學期成績與課規比對樣板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5763F305-9236-475D-97D6-A35D5B1E59F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F72678-EFA9-41DE-998D-FF80979832BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{858E2159-7E00-42C1-989A-9B7904A40F9C}"/>
   </bookViews>
   <sheets>
     <sheet name="依學期成績為主比對課規不符合" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6CAE89-474B-4CEE-AEE4-B853654E0034}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -558,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0508DE89-499A-4FE6-8E43-69C0C68899A2}">
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
